--- a/service-system/target/classes/static/路基边坡.xlsx
+++ b/service-system/target/classes/static/路基边坡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C9374-3E2C-4A0F-B370-25C3F4B3800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C6BBC-317C-49C4-88B1-9B94C216F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="948" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="948" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="9" state="hidden" r:id="rId1"/>
@@ -2683,7 +2683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
@@ -2693,7 +2693,7 @@
     <col min="8" max="9" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
@@ -2746,7 +2746,7 @@
     <col min="8" max="9" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2867,7 +2867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -2878,7 +2878,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -2889,7 +2889,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -2900,7 +2900,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -2911,7 +2911,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -2922,7 +2922,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -2933,7 +2933,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -2944,7 +2944,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -2955,7 +2955,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -2966,7 +2966,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -2977,7 +2977,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -2988,7 +2988,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -2999,7 +2999,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -3010,7 +3010,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -3021,7 +3021,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -3032,7 +3032,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -3043,7 +3043,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -3054,7 +3054,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -3065,7 +3065,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -3076,7 +3076,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -3087,7 +3087,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3098,7 +3098,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3109,7 +3109,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -3120,7 +3120,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -3131,7 +3131,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -3142,7 +3142,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -3153,7 +3153,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -3164,7 +3164,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -3175,7 +3175,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -3186,7 +3186,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -3217,10 +3217,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
 第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
   </headerFooter>
 </worksheet>
 </file>